--- a/datos/raw/Agentes.xlsx
+++ b/datos/raw/Agentes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\TesisPEG\datos\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5989DC3-1B44-4D80-91FB-933E801054CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2248E0-7149-4887-B344-D2F02C29EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1457" uniqueCount="769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="763">
   <si>
     <t>CÓDIGO SIC</t>
   </si>
@@ -1979,24 +1979,6 @@
   </si>
   <si>
     <t>Registro Agentes 2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Solicitud Retiro Voluntario Agentes (Pendiente plazos regulatorios 2025)</t>
-  </si>
-  <si>
-    <t>Agentes Retirados Voluntariamente 2025</t>
-  </si>
-  <si>
-    <t>AGENTES RETIRADOS DEL MERCADO ENERGÍA MAYORISTA SEGÚN RESOLUCIÓN CREG 156 DE 2011 -2025</t>
-  </si>
-  <si>
-    <t>Reintegro Agentes 2025</t>
-  </si>
-  <si>
-    <t>Fusiones 2025</t>
-  </si>
-  <si>
-    <t>Cambio razón social 2025</t>
   </si>
   <si>
     <t>COGC</t>
@@ -2550,7 +2532,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2674,22 +2656,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2896,29 +2867,9 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2926,17 +2877,8 @@
     <xf numFmtId="14" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2947,19 +2889,25 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2971,26 +2919,23 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="17" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3009,6 +2954,15 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3398,10 +3352,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA49304E-20E0-459A-9CE8-B76EA7EA80EF}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:L88"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3420,40 +3374,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
-        <v>660</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="A1" s="79" t="s">
+        <v>654</v>
+      </c>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="75" t="s">
         <v>632</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -3473,10 +3427,10 @@
       <c r="D5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="81"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
@@ -3485,21 +3439,21 @@
     </row>
     <row r="6" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D6" s="54" t="s">
-        <v>641</v>
-      </c>
-      <c r="E6" s="79">
+        <v>635</v>
+      </c>
+      <c r="E6" s="73">
         <v>45684</v>
       </c>
-      <c r="F6" s="80"/>
+      <c r="F6" s="74"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
@@ -3508,21 +3462,21 @@
     </row>
     <row r="7" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B7" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C7" s="54" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D7" s="54" t="s">
-        <v>641</v>
-      </c>
-      <c r="E7" s="79">
+        <v>635</v>
+      </c>
+      <c r="E7" s="73">
         <v>45684</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="74"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
@@ -3531,21 +3485,21 @@
     </row>
     <row r="8" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B8" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>645</v>
-      </c>
-      <c r="E8" s="79">
+        <v>639</v>
+      </c>
+      <c r="E8" s="73">
         <v>45686</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="74"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
@@ -3554,21 +3508,21 @@
     </row>
     <row r="9" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B9" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C9" s="54" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="D9" s="54" t="s">
-        <v>650</v>
-      </c>
-      <c r="E9" s="79">
+        <v>644</v>
+      </c>
+      <c r="E9" s="73">
         <v>45693</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="74"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -3577,21 +3531,21 @@
     </row>
     <row r="10" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B10" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C10" s="54" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D10" s="54" t="s">
-        <v>656</v>
-      </c>
-      <c r="E10" s="79">
+        <v>650</v>
+      </c>
+      <c r="E10" s="73">
         <v>45694</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="74"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
@@ -3600,21 +3554,21 @@
     </row>
     <row r="11" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B11" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="D11" s="54" t="s">
-        <v>671</v>
-      </c>
-      <c r="E11" s="79">
+        <v>665</v>
+      </c>
+      <c r="E11" s="73">
         <v>45750</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="74"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -3623,7 +3577,7 @@
     </row>
     <row r="12" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B12" s="54" t="s">
         <v>509</v>
@@ -3634,10 +3588,10 @@
       <c r="D12" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="E12" s="79">
+      <c r="E12" s="73">
         <v>45777</v>
       </c>
-      <c r="F12" s="80">
+      <c r="F12" s="74">
         <v>45777</v>
       </c>
       <c r="H12" s="66"/>
@@ -3648,21 +3602,21 @@
     </row>
     <row r="13" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="54" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B13" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C13" s="54" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D13" s="54" t="s">
-        <v>676</v>
-      </c>
-      <c r="E13" s="79">
+        <v>670</v>
+      </c>
+      <c r="E13" s="73">
         <v>45789</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="74"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
       <c r="J13" s="66"/>
@@ -3671,21 +3625,21 @@
     </row>
     <row r="14" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="54" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B14" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C14" s="54" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="D14" s="54" t="s">
-        <v>682</v>
-      </c>
-      <c r="E14" s="79">
+        <v>676</v>
+      </c>
+      <c r="E14" s="73">
         <v>45806</v>
       </c>
-      <c r="F14" s="80"/>
+      <c r="F14" s="74"/>
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
@@ -3694,21 +3648,21 @@
     </row>
     <row r="15" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B15" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C15" s="54" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D15" s="54" t="s">
-        <v>683</v>
-      </c>
-      <c r="E15" s="79">
+        <v>677</v>
+      </c>
+      <c r="E15" s="73">
         <v>45806</v>
       </c>
-      <c r="F15" s="80"/>
+      <c r="F15" s="74"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
@@ -3717,7 +3671,7 @@
     </row>
     <row r="16" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="B16" s="54" t="s">
         <v>509</v>
@@ -3728,10 +3682,10 @@
       <c r="D16" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="E16" s="79">
+      <c r="E16" s="73">
         <v>45824</v>
       </c>
-      <c r="F16" s="80"/>
+      <c r="F16" s="74"/>
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
@@ -3740,21 +3694,21 @@
     </row>
     <row r="17" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B17" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C17" s="54" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="D17" s="54" t="s">
-        <v>683</v>
-      </c>
-      <c r="E17" s="79">
+        <v>677</v>
+      </c>
+      <c r="E17" s="73">
         <v>45833</v>
       </c>
-      <c r="F17" s="80"/>
+      <c r="F17" s="74"/>
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
       <c r="J17" s="66"/>
@@ -3763,21 +3717,21 @@
     </row>
     <row r="18" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="B18" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C18" s="54" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="D18" s="54" t="s">
-        <v>690</v>
-      </c>
-      <c r="E18" s="79">
+        <v>684</v>
+      </c>
+      <c r="E18" s="73">
         <v>45834</v>
       </c>
-      <c r="F18" s="80"/>
+      <c r="F18" s="74"/>
       <c r="H18" s="66"/>
       <c r="I18" s="66"/>
       <c r="J18" s="66"/>
@@ -3786,21 +3740,21 @@
     </row>
     <row r="19" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="54" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="B19" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C19" s="54" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="D19" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="E19" s="79">
+      <c r="E19" s="73">
         <v>45859</v>
       </c>
-      <c r="F19" s="80"/>
+      <c r="F19" s="74"/>
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
       <c r="J19" s="66"/>
@@ -3809,21 +3763,21 @@
     </row>
     <row r="20" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="54" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="B20" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C20" s="54" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="D20" s="54" t="s">
-        <v>695</v>
-      </c>
-      <c r="E20" s="79">
+        <v>689</v>
+      </c>
+      <c r="E20" s="73">
         <v>45863</v>
       </c>
-      <c r="F20" s="80"/>
+      <c r="F20" s="74"/>
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
@@ -3832,21 +3786,21 @@
     </row>
     <row r="21" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="54" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B21" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C21" s="54" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="D21" s="54" t="s">
-        <v>676</v>
-      </c>
-      <c r="E21" s="79">
+        <v>670</v>
+      </c>
+      <c r="E21" s="73">
         <v>45867</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="74"/>
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
@@ -3855,21 +3809,21 @@
     </row>
     <row r="22" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="54" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="B22" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C22" s="54" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="D22" s="54" t="s">
-        <v>702</v>
-      </c>
-      <c r="E22" s="79">
+        <v>696</v>
+      </c>
+      <c r="E22" s="73">
         <v>45869</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="74"/>
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
@@ -3878,21 +3832,21 @@
     </row>
     <row r="23" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="54" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B23" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C23" s="54" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>708</v>
-      </c>
-      <c r="E23" s="79">
+        <v>702</v>
+      </c>
+      <c r="E23" s="73">
         <v>45877</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="74"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
@@ -3901,21 +3855,21 @@
     </row>
     <row r="24" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B24" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C24" s="54" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>712</v>
-      </c>
-      <c r="E24" s="79">
+        <v>706</v>
+      </c>
+      <c r="E24" s="73">
         <v>45882</v>
       </c>
-      <c r="F24" s="80"/>
+      <c r="F24" s="74"/>
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
@@ -3924,21 +3878,21 @@
     </row>
     <row r="25" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="54" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="B25" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C25" s="54" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="D25" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="E25" s="79">
+      <c r="E25" s="73">
         <v>45883</v>
       </c>
-      <c r="F25" s="80"/>
+      <c r="F25" s="74"/>
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
       <c r="J25" s="66"/>
@@ -3947,7 +3901,7 @@
     </row>
     <row r="26" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="54" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B26" s="54" t="s">
         <v>509</v>
@@ -3958,10 +3912,10 @@
       <c r="D26" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="73">
         <v>45883</v>
       </c>
-      <c r="F26" s="80"/>
+      <c r="F26" s="74"/>
       <c r="H26" s="66"/>
       <c r="I26" s="66"/>
       <c r="J26" s="66"/>
@@ -3970,21 +3924,21 @@
     </row>
     <row r="27" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="54" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B27" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C27" s="54" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="D27" s="54" t="s">
-        <v>721</v>
-      </c>
-      <c r="E27" s="79">
+        <v>715</v>
+      </c>
+      <c r="E27" s="73">
         <v>45895</v>
       </c>
-      <c r="F27" s="80"/>
+      <c r="F27" s="74"/>
       <c r="H27" s="66"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
@@ -3993,21 +3947,21 @@
     </row>
     <row r="28" spans="1:12" s="65" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="54" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B28" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>724</v>
-      </c>
-      <c r="E28" s="79">
+        <v>718</v>
+      </c>
+      <c r="E28" s="73">
         <v>45898</v>
       </c>
-      <c r="F28" s="80"/>
+      <c r="F28" s="74"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -4016,21 +3970,21 @@
     </row>
     <row r="29" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="54" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B29" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C29" s="54" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>727</v>
-      </c>
-      <c r="E29" s="79">
+        <v>721</v>
+      </c>
+      <c r="E29" s="73">
         <v>45905</v>
       </c>
-      <c r="F29" s="80"/>
+      <c r="F29" s="74"/>
       <c r="H29" s="66"/>
       <c r="I29" s="66"/>
       <c r="J29" s="66"/>
@@ -4039,21 +3993,21 @@
     </row>
     <row r="30" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="54" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="B30" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C30" s="54" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>730</v>
-      </c>
-      <c r="E30" s="79">
+        <v>724</v>
+      </c>
+      <c r="E30" s="73">
         <v>45905</v>
       </c>
-      <c r="F30" s="80"/>
+      <c r="F30" s="74"/>
       <c r="H30" s="66"/>
       <c r="I30" s="66"/>
       <c r="J30" s="66"/>
@@ -4062,21 +4016,21 @@
     </row>
     <row r="31" spans="1:12" s="65" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A31" s="54" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B31" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C31" s="54" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="D31" s="54" t="s">
-        <v>732</v>
-      </c>
-      <c r="E31" s="79">
+        <v>726</v>
+      </c>
+      <c r="E31" s="73">
         <v>45909</v>
       </c>
-      <c r="F31" s="80"/>
+      <c r="F31" s="74"/>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="66"/>
@@ -4085,21 +4039,21 @@
     </row>
     <row r="32" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="54" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B32" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C32" s="54" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="D32" s="54" t="s">
-        <v>736</v>
-      </c>
-      <c r="E32" s="79">
+        <v>730</v>
+      </c>
+      <c r="E32" s="73">
         <v>45923</v>
       </c>
-      <c r="F32" s="80"/>
+      <c r="F32" s="74"/>
       <c r="H32" s="66"/>
       <c r="I32" s="66"/>
       <c r="J32" s="66"/>
@@ -4108,21 +4062,21 @@
     </row>
     <row r="33" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="54" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B33" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C33" s="54" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="D33" s="54" t="s">
-        <v>739</v>
-      </c>
-      <c r="E33" s="79">
+        <v>733</v>
+      </c>
+      <c r="E33" s="73">
         <v>45926</v>
       </c>
-      <c r="F33" s="80"/>
+      <c r="F33" s="74"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66"/>
       <c r="J33" s="66"/>
@@ -4131,21 +4085,21 @@
     </row>
     <row r="34" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="54" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B34" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C34" s="54" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="D34" s="54" t="s">
-        <v>742</v>
-      </c>
-      <c r="E34" s="79">
+        <v>736</v>
+      </c>
+      <c r="E34" s="73">
         <v>45930</v>
       </c>
-      <c r="F34" s="80"/>
+      <c r="F34" s="74"/>
       <c r="H34" s="66"/>
       <c r="I34" s="66"/>
       <c r="J34" s="66"/>
@@ -4154,21 +4108,21 @@
     </row>
     <row r="35" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="54" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B35" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C35" s="54" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="D35" s="54" t="s">
-        <v>743</v>
-      </c>
-      <c r="E35" s="79">
+        <v>737</v>
+      </c>
+      <c r="E35" s="73">
         <v>45932</v>
       </c>
-      <c r="F35" s="80"/>
+      <c r="F35" s="74"/>
       <c r="H35" s="66"/>
       <c r="I35" s="66"/>
       <c r="J35" s="66"/>
@@ -4177,21 +4131,21 @@
     </row>
     <row r="36" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="54" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B36" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C36" s="54" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>748</v>
-      </c>
-      <c r="E36" s="79">
+        <v>742</v>
+      </c>
+      <c r="E36" s="73">
         <v>45932</v>
       </c>
-      <c r="F36" s="80"/>
+      <c r="F36" s="74"/>
       <c r="H36" s="66"/>
       <c r="I36" s="66"/>
       <c r="J36" s="66"/>
@@ -4200,21 +4154,21 @@
     </row>
     <row r="37" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="54" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B37" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C37" s="54" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="D37" s="54" t="s">
-        <v>751</v>
-      </c>
-      <c r="E37" s="79">
+        <v>745</v>
+      </c>
+      <c r="E37" s="73">
         <v>45945</v>
       </c>
-      <c r="F37" s="80"/>
+      <c r="F37" s="74"/>
       <c r="H37" s="66"/>
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
@@ -4223,21 +4177,21 @@
     </row>
     <row r="38" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B38" s="54" t="s">
         <v>387</v>
       </c>
       <c r="C38" s="54" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="D38" s="54" t="s">
-        <v>717</v>
-      </c>
-      <c r="E38" s="79">
+        <v>711</v>
+      </c>
+      <c r="E38" s="73">
         <v>45952</v>
       </c>
-      <c r="F38" s="80"/>
+      <c r="F38" s="74"/>
       <c r="H38" s="66"/>
       <c r="I38" s="66"/>
       <c r="J38" s="66"/>
@@ -4246,21 +4200,21 @@
     </row>
     <row r="39" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="54" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B39" s="54" t="s">
         <v>509</v>
       </c>
       <c r="C39" s="54" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="D39" s="54" t="s">
-        <v>756</v>
-      </c>
-      <c r="E39" s="78">
+        <v>750</v>
+      </c>
+      <c r="E39" s="82">
         <v>45953</v>
       </c>
-      <c r="F39" s="78"/>
+      <c r="F39" s="82"/>
       <c r="H39" s="66"/>
       <c r="I39" s="66"/>
       <c r="J39" s="66"/>
@@ -4269,94 +4223,120 @@
     </row>
     <row r="40" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="54" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B40" s="54" t="s">
         <v>498</v>
       </c>
       <c r="C40" s="54" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="D40" s="54" t="s">
-        <v>759</v>
-      </c>
-      <c r="E40" s="78">
+        <v>753</v>
+      </c>
+      <c r="E40" s="82">
         <v>45957</v>
       </c>
-      <c r="F40" s="78"/>
+      <c r="F40" s="82"/>
       <c r="H40" s="66"/>
       <c r="I40" s="66"/>
       <c r="J40" s="66"/>
       <c r="K40" s="66"/>
       <c r="L40" s="66"/>
     </row>
-    <row r="41" spans="1:12" s="65" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="69"/>
-      <c r="C41" s="69"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="54" t="s">
+        <v>691</v>
+      </c>
+      <c r="B41" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="C41" s="54" t="s">
+        <v>692</v>
+      </c>
+      <c r="D41" s="54" t="s">
+        <v>693</v>
+      </c>
+      <c r="E41" s="32">
+        <v>45863</v>
+      </c>
+      <c r="F41" s="32">
+        <v>46081</v>
+      </c>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="83" t="s">
-        <v>633</v>
-      </c>
-      <c r="B42" s="83"/>
-      <c r="C42" s="83"/>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="83"/>
+      <c r="A42" s="54" t="s">
+        <v>697</v>
+      </c>
+      <c r="B42" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="C42" s="54" t="s">
+        <v>698</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>699</v>
+      </c>
+      <c r="E42" s="32">
+        <v>45863</v>
+      </c>
+      <c r="F42" s="32">
+        <v>45991</v>
+      </c>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
       <c r="J42" s="55"/>
       <c r="K42" s="55"/>
       <c r="L42" s="55"/>
     </row>
-    <row r="43" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A43" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="58" t="s">
-        <v>12</v>
-      </c>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A43" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="B43" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="C43" s="54" t="s">
+        <v>712</v>
+      </c>
+      <c r="D43" s="54" t="s">
+        <v>370</v>
+      </c>
+      <c r="E43" s="32">
+        <v>45946</v>
+      </c>
+      <c r="F43" s="32">
+        <v>46081</v>
+      </c>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
       <c r="J43" s="55"/>
       <c r="K43" s="55"/>
       <c r="L43" s="55"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="54" t="s">
-        <v>697</v>
-      </c>
-      <c r="B44" s="54" t="s">
-        <v>509</v>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="72" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="31" t="s">
+        <v>387</v>
       </c>
       <c r="C44" s="54" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="D44" s="54" t="s">
-        <v>699</v>
+        <v>370</v>
       </c>
       <c r="E44" s="32">
-        <v>45863</v>
+        <v>45946</v>
       </c>
       <c r="F44" s="32">
-        <v>46081</v>
+        <v>46022</v>
       </c>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
@@ -4364,24 +4344,24 @@
       <c r="K44" s="55"/>
       <c r="L44" s="55"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="s">
-        <v>703</v>
-      </c>
-      <c r="B45" s="54" t="s">
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="72" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45" s="31" t="s">
         <v>509</v>
       </c>
       <c r="C45" s="54" t="s">
-        <v>704</v>
+        <v>349</v>
       </c>
       <c r="D45" s="54" t="s">
-        <v>705</v>
+        <v>350</v>
       </c>
       <c r="E45" s="32">
-        <v>45863</v>
+        <v>45973</v>
       </c>
       <c r="F45" s="32">
-        <v>45991</v>
+        <v>46203</v>
       </c>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
@@ -4389,164 +4369,199 @@
       <c r="K45" s="55"/>
       <c r="L45" s="55"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="75" t="s">
-        <v>372</v>
-      </c>
-      <c r="B46" s="54" t="s">
-        <v>509</v>
-      </c>
-      <c r="C46" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="D46" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="E46" s="32">
-        <v>45946</v>
+    <row r="46" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="30" t="s">
+        <v>583</v>
+      </c>
+      <c r="B46" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>584</v>
+      </c>
+      <c r="D46" s="31" t="s">
+        <v>640</v>
+      </c>
+      <c r="E46" s="32" t="s">
+        <v>585</v>
       </c>
       <c r="F46" s="32">
-        <v>46081</v>
-      </c>
-      <c r="H46" s="55"/>
+        <v>45688</v>
+      </c>
+      <c r="G46" s="29"/>
       <c r="I46" s="55"/>
       <c r="J46" s="55"/>
       <c r="K46" s="55"/>
       <c r="L46" s="55"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="75" t="s">
-        <v>371</v>
+    <row r="47" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="30" t="s">
+        <v>424</v>
       </c>
       <c r="B47" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C47" s="54" t="s">
-        <v>718</v>
-      </c>
-      <c r="D47" s="54" t="s">
-        <v>370</v>
-      </c>
-      <c r="E47" s="32">
-        <v>45946</v>
+        <v>498</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>425</v>
+      </c>
+      <c r="D47" s="31" t="s">
+        <v>663</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>426</v>
       </c>
       <c r="F47" s="32">
-        <v>46022</v>
-      </c>
-      <c r="H47" s="55"/>
+        <v>45747</v>
+      </c>
+      <c r="G47" s="29"/>
       <c r="I47" s="55"/>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
       <c r="L47" s="55"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="75" t="s">
-        <v>348</v>
+    <row r="48" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="30" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="C48" s="54" t="s">
-        <v>349</v>
-      </c>
-      <c r="D48" s="54" t="s">
-        <v>350</v>
-      </c>
-      <c r="E48" s="32">
-        <v>45973</v>
+        <v>14</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>38</v>
       </c>
       <c r="F48" s="32">
-        <v>46203</v>
-      </c>
-      <c r="H48" s="55"/>
+        <v>45687</v>
+      </c>
+      <c r="G48" s="29"/>
       <c r="I48" s="55"/>
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
       <c r="L48" s="55"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="76"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="H49" s="55"/>
+    <row r="49" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>667</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="32">
+        <v>45750</v>
+      </c>
+      <c r="G49" s="29"/>
       <c r="I49" s="55"/>
       <c r="J49" s="55"/>
       <c r="K49" s="55"/>
       <c r="L49" s="55"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="H50" s="55"/>
+    <row r="50" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="D50" s="31" t="s">
+        <v>678</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="F50" s="32">
+        <v>45814</v>
+      </c>
+      <c r="G50" s="29"/>
       <c r="I50" s="55"/>
       <c r="J50" s="55"/>
       <c r="K50" s="55"/>
       <c r="L50" s="55"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="87" t="s">
-        <v>634</v>
-      </c>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="H51" s="55"/>
+    <row r="51" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="32">
+        <v>45911</v>
+      </c>
+      <c r="G51" s="29"/>
       <c r="I51" s="55"/>
       <c r="J51" s="55"/>
       <c r="K51" s="55"/>
       <c r="L51" s="55"/>
     </row>
-    <row r="52" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A52" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="60" t="s">
-        <v>24</v>
-      </c>
-      <c r="G52" s="12"/>
+    <row r="52" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="30" t="s">
+        <v>591</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>589</v>
+      </c>
+      <c r="D52" s="31" t="s">
+        <v>754</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="F52" s="32">
+        <v>45962</v>
+      </c>
+      <c r="G52" s="29"/>
       <c r="I52" s="55"/>
       <c r="J52" s="55"/>
       <c r="K52" s="55"/>
       <c r="L52" s="55"/>
     </row>
-    <row r="53" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
-        <v>583</v>
+        <v>286</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>387</v>
+        <v>14</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>584</v>
+        <v>681</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>646</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>585</v>
+        <v>289</v>
+      </c>
+      <c r="E53" s="32">
+        <v>44985</v>
       </c>
       <c r="F53" s="32">
-        <v>45688</v>
+        <v>45834</v>
       </c>
       <c r="G53" s="29"/>
       <c r="I53" s="55"/>
@@ -4554,24 +4569,24 @@
       <c r="K53" s="55"/>
       <c r="L53" s="55"/>
     </row>
-    <row r="54" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
-        <v>424</v>
+        <v>35</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>498</v>
+        <v>14</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>669</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>426</v>
+        <v>38</v>
+      </c>
+      <c r="E54" s="32">
+        <v>45687</v>
       </c>
       <c r="F54" s="32">
-        <v>45747</v>
+        <v>45870</v>
       </c>
       <c r="G54" s="29"/>
       <c r="I54" s="55"/>
@@ -4579,675 +4594,301 @@
       <c r="K54" s="55"/>
       <c r="L54" s="55"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="H55" s="55"/>
+    <row r="55" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="30" t="s">
+        <v>552</v>
+      </c>
+      <c r="B55" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="D55" s="31" t="s">
+        <v>554</v>
+      </c>
+      <c r="E55" s="32">
+        <v>45814</v>
+      </c>
+      <c r="F55" s="32">
+        <v>45889</v>
+      </c>
+      <c r="G55" s="29"/>
       <c r="I55" s="55"/>
       <c r="J55" s="55"/>
       <c r="K55" s="55"/>
       <c r="L55" s="55"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="83" t="s">
-        <v>635</v>
-      </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="86"/>
-      <c r="H56" s="55"/>
-      <c r="I56" s="55"/>
-      <c r="J56" s="55"/>
-      <c r="K56" s="55"/>
-      <c r="L56" s="55"/>
-    </row>
-    <row r="57" spans="1:12" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A57" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H57" s="55"/>
-      <c r="I57" s="55"/>
-      <c r="J57" s="55"/>
-      <c r="K57" s="55"/>
-      <c r="L57" s="55"/>
-    </row>
-    <row r="58" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="30" t="s">
+        <v>144</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>651</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="F56" s="32">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>659</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>498</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>656</v>
+      </c>
+      <c r="D57" s="31" t="s">
+        <v>657</v>
+      </c>
+      <c r="E57" s="32" t="s">
+        <v>658</v>
+      </c>
+      <c r="F57" s="32">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
-        <v>35</v>
+        <v>660</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>36</v>
+        <v>656</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>38</v>
+        <v>658</v>
       </c>
       <c r="F58" s="32">
-        <v>45687</v>
-      </c>
-      <c r="G58" s="29"/>
-      <c r="I58" s="55"/>
-      <c r="J58" s="55"/>
-      <c r="K58" s="55"/>
-      <c r="L58" s="55"/>
-    </row>
-    <row r="59" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
-        <v>101</v>
+        <v>661</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>14</v>
+        <v>662</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>102</v>
+        <v>656</v>
       </c>
       <c r="D59" s="31" t="s">
-        <v>673</v>
+        <v>657</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>104</v>
+        <v>658</v>
       </c>
       <c r="F59" s="32">
-        <v>45750</v>
-      </c>
-      <c r="G59" s="29"/>
-      <c r="I59" s="55"/>
-      <c r="J59" s="55"/>
-      <c r="K59" s="55"/>
-      <c r="L59" s="55"/>
-    </row>
-    <row r="60" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>14</v>
+        <v>509</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>684</v>
+        <v>655</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="F60" s="32">
-        <v>45814</v>
-      </c>
-      <c r="G60" s="29"/>
-      <c r="I60" s="55"/>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-    </row>
-    <row r="61" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
-        <v>35</v>
+        <v>592</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="C61" s="33" t="s">
-        <v>36</v>
+        <v>568</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>38</v>
+        <v>569</v>
       </c>
       <c r="F61" s="32">
-        <v>45911</v>
-      </c>
-      <c r="G61" s="29"/>
-      <c r="I61" s="55"/>
-      <c r="J61" s="55"/>
-      <c r="K61" s="55"/>
-      <c r="L61" s="55"/>
-    </row>
-    <row r="62" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
-        <v>591</v>
+        <v>219</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>14</v>
+        <v>387</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="D62" s="31" t="s">
+        <v>682</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F62" s="32">
+        <v>45835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="30" t="s">
+        <v>710</v>
+      </c>
+      <c r="B63" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>709</v>
+      </c>
+      <c r="D63" s="31" t="s">
+        <v>708</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>711</v>
+      </c>
+      <c r="F63" s="32">
+        <v>45884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B64" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C64" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E64" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F64" s="32">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>509</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>712</v>
+      </c>
+      <c r="E65" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F65" s="32">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
+        <v>756</v>
+      </c>
+      <c r="B66" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="C66" s="34" t="s">
+        <v>757</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>758</v>
+      </c>
+      <c r="E66" s="34" t="s">
+        <v>755</v>
+      </c>
+      <c r="F66" s="35">
+        <v>45977</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
+        <v>759</v>
+      </c>
+      <c r="B67" s="34" t="s">
+        <v>509</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>762</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>760</v>
       </c>
-      <c r="E62" s="32" t="s">
-        <v>590</v>
-      </c>
-      <c r="F62" s="32">
-        <v>45962</v>
-      </c>
-      <c r="G62" s="29"/>
-      <c r="I62" s="55"/>
-      <c r="J62" s="55"/>
-      <c r="K62" s="55"/>
-      <c r="L62" s="55"/>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="55"/>
-      <c r="D64" s="55"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="55"/>
-      <c r="H64" s="55"/>
-      <c r="I64" s="55"/>
-      <c r="J64" s="55"/>
-      <c r="K64" s="55"/>
-      <c r="L64" s="55"/>
-    </row>
-    <row r="65" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="83" t="s">
-        <v>636</v>
-      </c>
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="55"/>
-      <c r="K65" s="55"/>
-      <c r="L65" s="55"/>
-    </row>
-    <row r="66" spans="1:12" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A66" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="52" t="s">
-        <v>267</v>
-      </c>
-      <c r="F66" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-    </row>
-    <row r="67" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="30" t="s">
-        <v>286</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>687</v>
-      </c>
-      <c r="D67" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="E67" s="32">
-        <v>44985</v>
-      </c>
-      <c r="F67" s="32">
-        <v>45834</v>
-      </c>
-      <c r="G67" s="29"/>
-      <c r="I67" s="55"/>
-      <c r="J67" s="55"/>
-      <c r="K67" s="55"/>
-      <c r="L67" s="55"/>
-    </row>
-    <row r="68" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D68" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="32">
-        <v>45687</v>
-      </c>
-      <c r="F68" s="32">
-        <v>45870</v>
-      </c>
-      <c r="G68" s="29"/>
-      <c r="I68" s="55"/>
-      <c r="J68" s="55"/>
-      <c r="K68" s="55"/>
-      <c r="L68" s="55"/>
-    </row>
-    <row r="69" spans="1:12" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="30" t="s">
-        <v>552</v>
-      </c>
-      <c r="B69" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>553</v>
-      </c>
-      <c r="D69" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="E69" s="32">
-        <v>45814</v>
-      </c>
-      <c r="F69" s="32">
-        <v>45889</v>
-      </c>
-      <c r="G69" s="29"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="55"/>
-      <c r="K69" s="55"/>
-      <c r="L69" s="55"/>
-    </row>
-    <row r="70" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="73"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="83" t="s">
-        <v>637</v>
-      </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-    </row>
-    <row r="72" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" s="52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C72" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D72" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72" s="52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="34"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="83" t="s">
-        <v>638</v>
-      </c>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-    </row>
-    <row r="76" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="60" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>2</v>
-      </c>
-      <c r="D76" s="60" t="s">
-        <v>506</v>
-      </c>
-      <c r="E76" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="64" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="30" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>658</v>
-      </c>
-      <c r="D77" s="31" t="s">
-        <v>657</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>659</v>
-      </c>
-      <c r="F77" s="32">
-        <v>45671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="30" t="s">
-        <v>665</v>
-      </c>
-      <c r="B78" s="31" t="s">
-        <v>498</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>663</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="F78" s="32">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="30" t="s">
-        <v>666</v>
-      </c>
-      <c r="B79" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C79" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="D79" s="31" t="s">
-        <v>663</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="F79" s="32">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="30" t="s">
-        <v>667</v>
-      </c>
-      <c r="B80" s="31" t="s">
-        <v>668</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>662</v>
-      </c>
-      <c r="D80" s="31" t="s">
-        <v>663</v>
-      </c>
-      <c r="E80" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="F80" s="32">
-        <v>45672</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="30" t="s">
-        <v>567</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="D81" s="31" t="s">
-        <v>661</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="F81" s="32">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="B82" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>568</v>
-      </c>
-      <c r="D82" s="31" t="s">
-        <v>661</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>569</v>
-      </c>
-      <c r="F82" s="32">
-        <v>45700</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="30" t="s">
-        <v>219</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>688</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>209</v>
-      </c>
-      <c r="F83" s="32">
-        <v>45835</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="30" t="s">
-        <v>716</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>715</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>714</v>
-      </c>
-      <c r="E84" s="32" t="s">
-        <v>717</v>
-      </c>
-      <c r="F84" s="32">
-        <v>45884</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="F85" s="32">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="30" t="s">
-        <v>372</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>509</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>369</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>718</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>370</v>
-      </c>
-      <c r="F86" s="32">
-        <v>45894</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
-        <v>762</v>
-      </c>
-      <c r="B87" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>763</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>764</v>
-      </c>
-      <c r="E87" s="34" t="s">
+      <c r="E67" s="34" t="s">
         <v>761</v>
       </c>
-      <c r="F87" s="35">
-        <v>45977</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
-        <v>765</v>
-      </c>
-      <c r="B88" s="34" t="s">
-        <v>509</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>768</v>
-      </c>
-      <c r="D88" s="34" t="s">
-        <v>766</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>767</v>
-      </c>
-      <c r="F88" s="35">
+      <c r="F67" s="35">
         <v>45977</v>
       </c>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="I56 J55" name="Rango1_13"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="J56" name="Rango1_14"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="E45:F49 A44 C44:F44 B50:F50" name="Rango1_25"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C73" name="Rango1_24"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D73" name="Rango1_27"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="I43" name="Rango1_17"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C54 E54:F54" name="Rango1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A54" name="Rango1_3"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A53" name="Rango1_1"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B53 B47 B49" name="Rango1_2"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C53" name="Rango1_4"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D53:D54" name="Rango1_5"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="E53" name="Rango1_6"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C41:F41 A41 E42:F45" name="Rango1_25"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C47 E47:F47" name="Rango1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A47" name="Rango1_3"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A46" name="Rango1_1"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B46 B44" name="Rango1_2"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C46" name="Rango1_4"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D46:D47" name="Rango1_5"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="E46" name="Rango1_6"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B10:B11 B14:B15 B18 B21:B22 B27:B29 B31 B33:B34" name="Rango1_7"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B81" name="Rango1_8"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B82:B83" name="Rango1_10"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A78" name="Rango1_12"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A79" name="Rango1_15"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A80" name="Rango1_16"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B78" name="Rango1_18"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B79" name="Rango1_19"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B80" name="Rango1_20"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B44:B46" name="Rango1_9"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A45" name="Rango1_11"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C45:C49" name="Rango1_21"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D45:D49" name="Rango1_22"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B60" name="Rango1_8"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B61:B62" name="Rango1_10"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A57" name="Rango1_12"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A58" name="Rango1_15"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A59" name="Rango1_16"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B57" name="Rango1_18"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B58" name="Rango1_19"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B59" name="Rango1_20"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B41:B43" name="Rango1_9"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A42" name="Rango1_11"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C42:C45" name="Rango1_21"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D42:D45" name="Rango1_22"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C23" name="Rango1_23"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D23" name="Rango1_26"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A24" name="Rango1_28"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C24" name="Rango1_29"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D24" name="Rango1_30"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A84" name="Rango1_31"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="E84" name="Rango1_32"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A63" name="Rango1_31"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="E63" name="Rango1_32"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="C27" name="Rango1_33"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D27" name="Rango1_34"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A28" name="Rango1_35"/>
@@ -5265,28 +4906,24 @@
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B36" name="Rango1_47"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A36" name="Rango1_48"/>
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A37:A40" name="Rango1_49"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="E62:E63" name="Rango1_50"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D62:D63" name="Rango1_52"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A62:A63" name="Rango1_53"/>
-    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B48" name="Rango1_51"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="E52" name="Rango1_50"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D52" name="Rango1_52"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="A52" name="Rango1_53"/>
+    <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B45" name="Rango1_51"/>
   </protectedRanges>
-  <mergeCells count="44">
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+  <mergeCells count="38">
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E39:F39"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="E33:F33"/>
     <mergeCell ref="E21:F21"/>
@@ -5303,18 +4940,16 @@
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5346,40 +4981,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="79" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="82"/>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
       <c r="J4" s="55"/>
@@ -5399,10 +5034,10 @@
       <c r="D5" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="84" t="s">
+      <c r="E5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="84"/>
+      <c r="F5" s="81"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
       <c r="J5" s="55"/>
@@ -5422,10 +5057,10 @@
       <c r="D6" s="54" t="s">
         <v>500</v>
       </c>
-      <c r="E6" s="79">
+      <c r="E6" s="73">
         <v>45297</v>
       </c>
-      <c r="F6" s="80"/>
+      <c r="F6" s="74"/>
       <c r="H6" s="66"/>
       <c r="I6" s="66"/>
       <c r="J6" s="66"/>
@@ -5445,10 +5080,10 @@
       <c r="D7" s="54" t="s">
         <v>519</v>
       </c>
-      <c r="E7" s="79">
+      <c r="E7" s="73">
         <v>45369</v>
       </c>
-      <c r="F7" s="80"/>
+      <c r="F7" s="74"/>
       <c r="H7" s="66"/>
       <c r="I7" s="66"/>
       <c r="J7" s="66"/>
@@ -5468,10 +5103,10 @@
       <c r="D8" s="54" t="s">
         <v>523</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="73">
         <v>45370</v>
       </c>
-      <c r="F8" s="80"/>
+      <c r="F8" s="74"/>
       <c r="H8" s="66"/>
       <c r="I8" s="66"/>
       <c r="J8" s="66"/>
@@ -5491,10 +5126,10 @@
       <c r="D9" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="73">
         <v>45390</v>
       </c>
-      <c r="F9" s="80"/>
+      <c r="F9" s="74"/>
       <c r="H9" s="66"/>
       <c r="I9" s="66"/>
       <c r="J9" s="66"/>
@@ -5514,10 +5149,10 @@
       <c r="D10" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="E10" s="79">
+      <c r="E10" s="73">
         <v>45391</v>
       </c>
-      <c r="F10" s="80"/>
+      <c r="F10" s="74"/>
       <c r="H10" s="66"/>
       <c r="I10" s="66"/>
       <c r="J10" s="66"/>
@@ -5537,10 +5172,10 @@
       <c r="D11" s="54" t="s">
         <v>531</v>
       </c>
-      <c r="E11" s="79">
+      <c r="E11" s="73">
         <v>45406</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="74"/>
       <c r="H11" s="66"/>
       <c r="I11" s="66"/>
       <c r="J11" s="66"/>
@@ -5560,10 +5195,10 @@
       <c r="D12" s="54" t="s">
         <v>536</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="82">
         <v>45411</v>
       </c>
-      <c r="F12" s="78"/>
+      <c r="F12" s="82"/>
       <c r="H12" s="66"/>
       <c r="I12" s="66"/>
       <c r="J12" s="66"/>
@@ -5583,10 +5218,10 @@
       <c r="D13" s="54" t="s">
         <v>542</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="73">
         <v>45411</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="74"/>
       <c r="H13" s="66"/>
       <c r="I13" s="66"/>
       <c r="J13" s="66"/>
@@ -5606,10 +5241,10 @@
       <c r="D14" s="54" t="s">
         <v>538</v>
       </c>
-      <c r="E14" s="78">
+      <c r="E14" s="82">
         <v>45412</v>
       </c>
-      <c r="F14" s="78"/>
+      <c r="F14" s="82"/>
       <c r="H14" s="66"/>
       <c r="I14" s="66"/>
       <c r="J14" s="66"/>
@@ -5629,10 +5264,10 @@
       <c r="D15" s="54" t="s">
         <v>545</v>
       </c>
-      <c r="E15" s="78">
+      <c r="E15" s="82">
         <v>45412</v>
       </c>
-      <c r="F15" s="78"/>
+      <c r="F15" s="82"/>
       <c r="H15" s="66"/>
       <c r="I15" s="66"/>
       <c r="J15" s="66"/>
@@ -5652,10 +5287,10 @@
       <c r="D16" s="54" t="s">
         <v>550</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="82">
         <v>45419</v>
       </c>
-      <c r="F16" s="78"/>
+      <c r="F16" s="82"/>
       <c r="H16" s="66"/>
       <c r="I16" s="66"/>
       <c r="J16" s="66"/>
@@ -5675,10 +5310,10 @@
       <c r="D17" s="54" t="s">
         <v>554</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="82">
         <v>45427</v>
       </c>
-      <c r="F17" s="78"/>
+      <c r="F17" s="82"/>
       <c r="H17" s="66"/>
       <c r="I17" s="66"/>
       <c r="J17" s="66"/>
@@ -5698,10 +5333,10 @@
       <c r="D18" s="54" t="s">
         <v>558</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="82">
         <v>45439</v>
       </c>
-      <c r="F18" s="78"/>
+      <c r="F18" s="82"/>
       <c r="H18" s="66"/>
       <c r="I18" s="66"/>
       <c r="J18" s="66"/>
@@ -5721,10 +5356,10 @@
       <c r="D19" s="54" t="s">
         <v>560</v>
       </c>
-      <c r="E19" s="78">
+      <c r="E19" s="82">
         <v>45439</v>
       </c>
-      <c r="F19" s="78"/>
+      <c r="F19" s="82"/>
       <c r="H19" s="66"/>
       <c r="I19" s="66"/>
       <c r="J19" s="66"/>
@@ -5744,10 +5379,10 @@
       <c r="D20" s="54" t="s">
         <v>563</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="82">
         <v>45441</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="82"/>
       <c r="H20" s="66"/>
       <c r="I20" s="66"/>
       <c r="J20" s="66"/>
@@ -5767,10 +5402,10 @@
       <c r="D21" s="54" t="s">
         <v>565</v>
       </c>
-      <c r="E21" s="79">
+      <c r="E21" s="73">
         <v>45447</v>
       </c>
-      <c r="F21" s="80"/>
+      <c r="F21" s="74"/>
       <c r="H21" s="66"/>
       <c r="I21" s="66"/>
       <c r="J21" s="66"/>
@@ -5790,10 +5425,10 @@
       <c r="D22" s="54" t="s">
         <v>569</v>
       </c>
-      <c r="E22" s="79">
+      <c r="E22" s="73">
         <v>45448</v>
       </c>
-      <c r="F22" s="80"/>
+      <c r="F22" s="74"/>
       <c r="H22" s="66"/>
       <c r="I22" s="66"/>
       <c r="J22" s="66"/>
@@ -5813,10 +5448,10 @@
       <c r="D23" s="54" t="s">
         <v>571</v>
       </c>
-      <c r="E23" s="79">
+      <c r="E23" s="73">
         <v>45455</v>
       </c>
-      <c r="F23" s="80"/>
+      <c r="F23" s="74"/>
       <c r="H23" s="66"/>
       <c r="I23" s="66"/>
       <c r="J23" s="66"/>
@@ -5836,10 +5471,10 @@
       <c r="D24" s="54" t="s">
         <v>573</v>
       </c>
-      <c r="E24" s="79">
+      <c r="E24" s="73">
         <v>45461</v>
       </c>
-      <c r="F24" s="80"/>
+      <c r="F24" s="74"/>
       <c r="H24" s="66"/>
       <c r="I24" s="66"/>
       <c r="J24" s="66"/>
@@ -5859,10 +5494,10 @@
       <c r="D25" s="54" t="s">
         <v>577</v>
       </c>
-      <c r="E25" s="79">
+      <c r="E25" s="73">
         <v>45467</v>
       </c>
-      <c r="F25" s="80"/>
+      <c r="F25" s="74"/>
       <c r="H25" s="66"/>
       <c r="I25" s="66"/>
       <c r="J25" s="66"/>
@@ -5882,10 +5517,10 @@
       <c r="D26" s="54" t="s">
         <v>581</v>
       </c>
-      <c r="E26" s="79">
+      <c r="E26" s="73">
         <v>45468</v>
       </c>
-      <c r="F26" s="80"/>
+      <c r="F26" s="74"/>
       <c r="H26" s="66"/>
       <c r="I26" s="66"/>
       <c r="J26" s="66"/>
@@ -5905,10 +5540,10 @@
       <c r="D27" s="54" t="s">
         <v>588</v>
       </c>
-      <c r="E27" s="79">
+      <c r="E27" s="73">
         <v>45485</v>
       </c>
-      <c r="F27" s="80"/>
+      <c r="F27" s="74"/>
       <c r="H27" s="66"/>
       <c r="I27" s="66"/>
       <c r="J27" s="66"/>
@@ -5928,10 +5563,10 @@
       <c r="D28" s="69" t="s">
         <v>590</v>
       </c>
-      <c r="E28" s="79">
+      <c r="E28" s="73">
         <v>45498</v>
       </c>
-      <c r="F28" s="80"/>
+      <c r="F28" s="74"/>
       <c r="H28" s="66"/>
       <c r="I28" s="66"/>
       <c r="J28" s="66"/>
@@ -5951,10 +5586,10 @@
       <c r="D29" s="54" t="s">
         <v>569</v>
       </c>
-      <c r="E29" s="79">
+      <c r="E29" s="73">
         <v>45498</v>
       </c>
-      <c r="F29" s="80"/>
+      <c r="F29" s="74"/>
       <c r="H29" s="66"/>
       <c r="I29" s="66"/>
       <c r="J29" s="66"/>
@@ -5974,10 +5609,10 @@
       <c r="D30" s="54" t="s">
         <v>595</v>
       </c>
-      <c r="E30" s="79">
+      <c r="E30" s="73">
         <v>45513</v>
       </c>
-      <c r="F30" s="80"/>
+      <c r="F30" s="74"/>
       <c r="H30" s="66"/>
       <c r="I30" s="66"/>
       <c r="J30" s="66"/>
@@ -5997,10 +5632,10 @@
       <c r="D31" s="54" t="s">
         <v>598</v>
       </c>
-      <c r="E31" s="79">
+      <c r="E31" s="73">
         <v>45524</v>
       </c>
-      <c r="F31" s="80"/>
+      <c r="F31" s="74"/>
       <c r="H31" s="66"/>
       <c r="I31" s="66"/>
       <c r="J31" s="66"/>
@@ -6020,10 +5655,10 @@
       <c r="D32" s="54" t="s">
         <v>602</v>
       </c>
-      <c r="E32" s="79">
+      <c r="E32" s="73">
         <v>45533</v>
       </c>
-      <c r="F32" s="80"/>
+      <c r="F32" s="74"/>
       <c r="H32" s="66"/>
       <c r="I32" s="66"/>
       <c r="J32" s="66"/>
@@ -6043,10 +5678,10 @@
       <c r="D33" s="54" t="s">
         <v>605</v>
       </c>
-      <c r="E33" s="79">
+      <c r="E33" s="73">
         <v>45554</v>
       </c>
-      <c r="F33" s="80"/>
+      <c r="F33" s="74"/>
       <c r="H33" s="66"/>
       <c r="I33" s="66"/>
       <c r="J33" s="66"/>
@@ -6066,10 +5701,10 @@
       <c r="D34" s="54" t="s">
         <v>609</v>
       </c>
-      <c r="E34" s="79">
+      <c r="E34" s="73">
         <v>45566</v>
       </c>
-      <c r="F34" s="80"/>
+      <c r="F34" s="74"/>
       <c r="H34" s="66"/>
       <c r="I34" s="66"/>
       <c r="J34" s="66"/>
@@ -6089,10 +5724,10 @@
       <c r="D35" s="54" t="s">
         <v>612</v>
       </c>
-      <c r="E35" s="79">
+      <c r="E35" s="73">
         <v>45576</v>
       </c>
-      <c r="F35" s="80"/>
+      <c r="F35" s="74"/>
       <c r="H35" s="66"/>
       <c r="I35" s="66"/>
       <c r="J35" s="66"/>
@@ -6112,10 +5747,10 @@
       <c r="D36" s="54" t="s">
         <v>616</v>
       </c>
-      <c r="E36" s="79">
+      <c r="E36" s="73">
         <v>45604</v>
       </c>
-      <c r="F36" s="80"/>
+      <c r="F36" s="74"/>
       <c r="H36" s="66"/>
       <c r="I36" s="66"/>
       <c r="J36" s="66"/>
@@ -6135,10 +5770,10 @@
       <c r="D37" s="54" t="s">
         <v>616</v>
       </c>
-      <c r="E37" s="79">
+      <c r="E37" s="73">
         <v>45604</v>
       </c>
-      <c r="F37" s="80"/>
+      <c r="F37" s="74"/>
       <c r="H37" s="66"/>
       <c r="I37" s="66"/>
       <c r="J37" s="66"/>
@@ -6158,10 +5793,10 @@
       <c r="D38" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E38" s="79">
+      <c r="E38" s="73">
         <v>45653</v>
       </c>
-      <c r="F38" s="80"/>
+      <c r="F38" s="74"/>
       <c r="H38" s="66"/>
       <c r="I38" s="66"/>
       <c r="J38" s="66"/>
@@ -6179,14 +5814,14 @@
       <c r="L39" s="55"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="83" t="s">
+      <c r="A40" s="75" t="s">
         <v>376</v>
       </c>
-      <c r="B40" s="83"/>
-      <c r="C40" s="83"/>
-      <c r="D40" s="83"/>
-      <c r="E40" s="83"/>
-      <c r="F40" s="83"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+      <c r="F40" s="75"/>
       <c r="J40" s="55"/>
       <c r="K40" s="55"/>
       <c r="L40" s="55"/>
@@ -6278,14 +5913,14 @@
       <c r="L44" s="55"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="87" t="s">
+      <c r="A45" s="78" t="s">
         <v>377</v>
       </c>
-      <c r="B45" s="87"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="87"/>
+      <c r="B45" s="78"/>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="78"/>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
@@ -6506,14 +6141,14 @@
       <c r="L54" s="55"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="83" t="s">
+      <c r="A55" s="75" t="s">
         <v>378</v>
       </c>
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="86"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="77"/>
       <c r="H55" s="55"/>
       <c r="I55" s="55"/>
       <c r="J55" s="55"/>
@@ -6558,14 +6193,14 @@
       <c r="L57" s="55"/>
     </row>
     <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="83" t="s">
+      <c r="A58" s="75" t="s">
         <v>379</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
       <c r="G58" s="1"/>
       <c r="H58" s="55"/>
       <c r="I58" s="55"/>
@@ -6665,14 +6300,14 @@
       <c r="E63" s="14"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="83" t="s">
+      <c r="A64" s="75" t="s">
         <v>380</v>
       </c>
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
+      <c r="B64" s="76"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="76"/>
+      <c r="E64" s="76"/>
+      <c r="F64" s="76"/>
     </row>
     <row r="65" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
@@ -6775,14 +6410,14 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="83" t="s">
+      <c r="A71" s="75" t="s">
         <v>502</v>
       </c>
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
+      <c r="B71" s="76"/>
+      <c r="C71" s="76"/>
+      <c r="D71" s="76"/>
+      <c r="E71" s="76"/>
+      <c r="F71" s="76"/>
     </row>
     <row r="72" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="60" t="s">
@@ -6881,12 +6516,30 @@
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="B36" name="Rango1_1"/>
   </protectedRanges>
   <mergeCells count="42">
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
@@ -6899,30 +6552,12 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A71:F71"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6954,39 +6589,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="94"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>259</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="91"/>
     </row>
     <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -7002,10 +6637,10 @@
       <c r="D5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="93"/>
     </row>
     <row r="6" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -7020,10 +6655,10 @@
       <c r="D6" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E6" s="90">
+      <c r="E6" s="83">
         <v>44943</v>
       </c>
-      <c r="F6" s="90"/>
+      <c r="F6" s="83"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -7042,10 +6677,10 @@
       <c r="D7" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="90">
+      <c r="E7" s="83">
         <v>44972</v>
       </c>
-      <c r="F7" s="90"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -7065,10 +6700,10 @@
       <c r="D8" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="83">
         <v>44986</v>
       </c>
-      <c r="F8" s="90"/>
+      <c r="F8" s="83"/>
     </row>
     <row r="9" spans="1:14" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
@@ -7083,10 +6718,10 @@
       <c r="D9" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="83">
         <v>44987</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -7106,10 +6741,10 @@
       <c r="D10" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E10" s="90">
+      <c r="E10" s="83">
         <v>45041</v>
       </c>
-      <c r="F10" s="90"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -7129,10 +6764,10 @@
       <c r="D11" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E11" s="90">
+      <c r="E11" s="83">
         <v>45049</v>
       </c>
-      <c r="F11" s="90"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -7152,10 +6787,10 @@
       <c r="D12" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E12" s="90">
+      <c r="E12" s="83">
         <v>45058</v>
       </c>
-      <c r="F12" s="90"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -7175,10 +6810,10 @@
       <c r="D13" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="E13" s="90">
+      <c r="E13" s="83">
         <v>45077</v>
       </c>
-      <c r="F13" s="90"/>
+      <c r="F13" s="83"/>
       <c r="G13" s="25"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -7197,10 +6832,10 @@
       <c r="D14" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E14" s="92">
+      <c r="E14" s="94">
         <v>45103</v>
       </c>
-      <c r="F14" s="92"/>
+      <c r="F14" s="94"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -7220,10 +6855,10 @@
       <c r="D15" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="E15" s="90">
+      <c r="E15" s="83">
         <v>45154</v>
       </c>
-      <c r="F15" s="90"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -7243,10 +6878,10 @@
       <c r="D16" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="E16" s="90">
+      <c r="E16" s="83">
         <v>45155</v>
       </c>
-      <c r="F16" s="90"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -7266,10 +6901,10 @@
       <c r="D17" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="E17" s="90">
+      <c r="E17" s="83">
         <v>45167</v>
       </c>
-      <c r="F17" s="90"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -7289,10 +6924,10 @@
       <c r="D18" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="83">
         <v>45182</v>
       </c>
-      <c r="F18" s="90"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -7312,10 +6947,10 @@
       <c r="D19" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="83">
         <v>45190</v>
       </c>
-      <c r="F19" s="90"/>
+      <c r="F19" s="83"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -7335,10 +6970,10 @@
       <c r="D20" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="83">
         <v>45201</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="83"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -7358,10 +6993,10 @@
       <c r="D21" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="83">
         <v>45218</v>
       </c>
-      <c r="F21" s="90"/>
+      <c r="F21" s="83"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -7381,10 +7016,10 @@
       <c r="D22" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="83">
         <v>45224</v>
       </c>
-      <c r="F22" s="90"/>
+      <c r="F22" s="83"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -7393,21 +7028,21 @@
     </row>
     <row r="23" spans="1:14" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>651</v>
-      </c>
-      <c r="E23" s="90">
+        <v>645</v>
+      </c>
+      <c r="E23" s="83">
         <v>45273</v>
       </c>
-      <c r="F23" s="90"/>
+      <c r="F23" s="83"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -7427,10 +7062,10 @@
       <c r="D24" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="83">
         <v>45273</v>
       </c>
-      <c r="F24" s="90"/>
+      <c r="F24" s="83"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -7450,10 +7085,10 @@
       <c r="D25" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E25" s="90">
+      <c r="E25" s="83">
         <v>45273</v>
       </c>
-      <c r="F25" s="90"/>
+      <c r="F25" s="83"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -7473,10 +7108,10 @@
       <c r="D26" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="E26" s="90">
+      <c r="E26" s="83">
         <v>45273</v>
       </c>
-      <c r="F26" s="90"/>
+      <c r="F26" s="83"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -7496,10 +7131,10 @@
       <c r="D27" s="71" t="s">
         <v>370</v>
       </c>
-      <c r="E27" s="98">
+      <c r="E27" s="84">
         <v>45278</v>
       </c>
-      <c r="F27" s="99"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -7519,10 +7154,10 @@
       <c r="D28" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E28" s="90">
+      <c r="E28" s="83">
         <v>45278</v>
       </c>
-      <c r="F28" s="90"/>
+      <c r="F28" s="83"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7542,14 +7177,14 @@
       <c r="N29" s="6"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="88" t="s">
+      <c r="A30" s="89" t="s">
         <v>263</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
+      <c r="B30" s="90"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="90"/>
+      <c r="E30" s="90"/>
+      <c r="F30" s="90"/>
       <c r="G30" s="25"/>
     </row>
     <row r="31" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -7581,13 +7216,13 @@
       <c r="F32" s="28"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="88" t="s">
+      <c r="A33" s="89" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
-      <c r="E33" s="89"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
       <c r="F33" s="91"/>
     </row>
     <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -7779,14 +7414,14 @@
       <c r="F43" s="15"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="89" t="s">
         <v>265</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
     </row>
     <row r="45" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
@@ -8029,14 +7664,14 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="88" t="s">
+      <c r="A58" s="89" t="s">
         <v>266</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="89"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="90"/>
+      <c r="E58" s="90"/>
+      <c r="F58" s="90"/>
     </row>
     <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
@@ -8080,14 +7715,14 @@
     </row>
     <row r="61" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="88" t="s">
+      <c r="A62" s="89" t="s">
         <v>268</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="89"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
+      <c r="B62" s="90"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
@@ -8268,21 +7903,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D28" name="Rango1_27_2_1_1"/>
   </protectedRanges>
   <mergeCells count="31">
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
     <mergeCell ref="A62:F62"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E9:F9"/>
@@ -8299,6 +7919,21 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8327,40 +7962,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
     </row>
     <row r="2" spans="1:41" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
     </row>
     <row r="3" spans="1:41" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.3">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
     </row>
     <row r="5" spans="1:41" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -8375,10 +8010,10 @@
       <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="93"/>
     </row>
     <row r="6" spans="1:41" s="1" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -8393,10 +8028,10 @@
       <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="105">
+      <c r="E6" s="97">
         <v>44582</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="98"/>
     </row>
     <row r="7" spans="1:41" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -8411,10 +8046,10 @@
       <c r="D7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="105">
+      <c r="E7" s="97">
         <v>44585</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -8432,10 +8067,10 @@
       <c r="D8" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="90">
+      <c r="E8" s="83">
         <v>44586</v>
       </c>
-      <c r="F8" s="90"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -8453,10 +8088,10 @@
       <c r="D9" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="90">
+      <c r="E9" s="83">
         <v>44630</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -8506,10 +8141,10 @@
       <c r="D10" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="107">
+      <c r="E10" s="99">
         <v>44636</v>
       </c>
-      <c r="F10" s="108"/>
+      <c r="F10" s="100"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -8559,10 +8194,10 @@
       <c r="D11" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="107">
+      <c r="E11" s="99">
         <v>44643</v>
       </c>
-      <c r="F11" s="108"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -8612,10 +8247,10 @@
       <c r="D12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E12" s="107">
+      <c r="E12" s="99">
         <v>44645</v>
       </c>
-      <c r="F12" s="108"/>
+      <c r="F12" s="100"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -8665,10 +8300,10 @@
       <c r="D13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="107">
+      <c r="E13" s="99">
         <v>44645</v>
       </c>
-      <c r="F13" s="108"/>
+      <c r="F13" s="100"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -8718,10 +8353,10 @@
       <c r="D14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="107">
+      <c r="E14" s="99">
         <v>44650</v>
       </c>
-      <c r="F14" s="108"/>
+      <c r="F14" s="100"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -8771,10 +8406,10 @@
       <c r="D15" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="107">
+      <c r="E15" s="99">
         <v>44659</v>
       </c>
-      <c r="F15" s="108"/>
+      <c r="F15" s="100"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -8824,10 +8459,10 @@
       <c r="D16" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="107">
+      <c r="E16" s="99">
         <v>44659</v>
       </c>
-      <c r="F16" s="108"/>
+      <c r="F16" s="100"/>
       <c r="G16" s="6"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
@@ -8875,10 +8510,10 @@
       <c r="D17" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="100">
+      <c r="E17" s="101">
         <v>44676</v>
       </c>
-      <c r="F17" s="100"/>
+      <c r="F17" s="101"/>
       <c r="G17" s="6"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
@@ -8926,10 +8561,10 @@
       <c r="D18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="E18" s="100">
+      <c r="E18" s="101">
         <v>44690</v>
       </c>
-      <c r="F18" s="100"/>
+      <c r="F18" s="101"/>
       <c r="G18" s="6"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
@@ -8977,10 +8612,10 @@
       <c r="D19" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E19" s="100">
+      <c r="E19" s="101">
         <v>44694</v>
       </c>
-      <c r="F19" s="100"/>
+      <c r="F19" s="101"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="1"/>
@@ -9011,10 +8646,10 @@
       <c r="D20" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="100">
+      <c r="E20" s="101">
         <v>44705</v>
       </c>
-      <c r="F20" s="100"/>
+      <c r="F20" s="101"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
       <c r="I20" s="1"/>
@@ -9045,10 +8680,10 @@
       <c r="D21" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="E21" s="100">
+      <c r="E21" s="101">
         <v>44705</v>
       </c>
-      <c r="F21" s="100"/>
+      <c r="F21" s="101"/>
       <c r="G21" s="12"/>
       <c r="H21" s="12"/>
       <c r="I21" s="1"/>
@@ -9079,10 +8714,10 @@
       <c r="D22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="E22" s="100">
+      <c r="E22" s="101">
         <v>44707</v>
       </c>
-      <c r="F22" s="100"/>
+      <c r="F22" s="101"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="1"/>
@@ -9113,10 +8748,10 @@
       <c r="D23" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="E23" s="100">
+      <c r="E23" s="101">
         <v>44721</v>
       </c>
-      <c r="F23" s="100"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -9166,10 +8801,10 @@
       <c r="D24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E24" s="100">
+      <c r="E24" s="101">
         <v>44725</v>
       </c>
-      <c r="F24" s="100"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -9219,10 +8854,10 @@
       <c r="D25" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="E25" s="100">
+      <c r="E25" s="101">
         <v>44725</v>
       </c>
-      <c r="F25" s="100"/>
+      <c r="F25" s="101"/>
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -9237,10 +8872,10 @@
       <c r="D26" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="E26" s="100">
+      <c r="E26" s="101">
         <v>44729</v>
       </c>
-      <c r="F26" s="100"/>
+      <c r="F26" s="101"/>
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -9255,10 +8890,10 @@
       <c r="D27" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="E27" s="100">
+      <c r="E27" s="101">
         <v>44740</v>
       </c>
-      <c r="F27" s="100"/>
+      <c r="F27" s="101"/>
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -9273,10 +8908,10 @@
       <c r="D28" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="100">
+      <c r="E28" s="101">
         <v>44774</v>
       </c>
-      <c r="F28" s="100">
+      <c r="F28" s="101">
         <v>44774</v>
       </c>
     </row>
@@ -9293,10 +8928,10 @@
       <c r="D29" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="E29" s="100">
+      <c r="E29" s="101">
         <v>44777</v>
       </c>
-      <c r="F29" s="100"/>
+      <c r="F29" s="101"/>
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
@@ -9311,10 +8946,10 @@
       <c r="D30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="E30" s="100">
+      <c r="E30" s="101">
         <v>44777</v>
       </c>
-      <c r="F30" s="100"/>
+      <c r="F30" s="101"/>
     </row>
     <row r="31" spans="1:41" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
@@ -9329,10 +8964,10 @@
       <c r="D31" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="E31" s="100">
+      <c r="E31" s="101">
         <v>44784</v>
       </c>
-      <c r="F31" s="100"/>
+      <c r="F31" s="101"/>
       <c r="G31" s="12"/>
     </row>
     <row r="32" spans="1:41" ht="15" x14ac:dyDescent="0.3">
@@ -9348,10 +8983,10 @@
       <c r="D32" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="E32" s="100">
+      <c r="E32" s="101">
         <v>44789</v>
       </c>
-      <c r="F32" s="100"/>
+      <c r="F32" s="101"/>
       <c r="G32" s="12"/>
     </row>
     <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.3">
@@ -9367,10 +9002,10 @@
       <c r="D33" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="100">
+      <c r="E33" s="101">
         <v>44791</v>
       </c>
-      <c r="F33" s="100"/>
+      <c r="F33" s="101"/>
       <c r="G33" s="12"/>
       <c r="H33" s="12"/>
     </row>
@@ -9387,10 +9022,10 @@
       <c r="D34" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="E34" s="100">
+      <c r="E34" s="101">
         <v>44791</v>
       </c>
-      <c r="F34" s="100"/>
+      <c r="F34" s="101"/>
       <c r="G34" s="12"/>
       <c r="H34" s="12"/>
     </row>
@@ -9407,10 +9042,10 @@
       <c r="D35" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="101">
         <v>44796</v>
       </c>
-      <c r="F35" s="100"/>
+      <c r="F35" s="101"/>
       <c r="G35" s="12"/>
       <c r="H35" s="12"/>
     </row>
@@ -9427,10 +9062,10 @@
       <c r="D36" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="E36" s="100">
+      <c r="E36" s="101">
         <v>44804</v>
       </c>
-      <c r="F36" s="100"/>
+      <c r="F36" s="101"/>
       <c r="G36" s="12"/>
       <c r="H36" s="12"/>
     </row>
@@ -9447,10 +9082,10 @@
       <c r="D37" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="E37" s="100">
+      <c r="E37" s="101">
         <v>44834</v>
       </c>
-      <c r="F37" s="100"/>
+      <c r="F37" s="101"/>
       <c r="G37" s="12"/>
       <c r="H37" s="12"/>
     </row>
@@ -9467,10 +9102,10 @@
       <c r="D38" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E38" s="100">
+      <c r="E38" s="101">
         <v>44834</v>
       </c>
-      <c r="F38" s="100"/>
+      <c r="F38" s="101"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
     </row>
@@ -9487,10 +9122,10 @@
       <c r="D39" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="E39" s="100">
+      <c r="E39" s="101">
         <v>44834</v>
       </c>
-      <c r="F39" s="100"/>
+      <c r="F39" s="101"/>
       <c r="G39" s="12"/>
       <c r="H39" s="12"/>
     </row>
@@ -9507,10 +9142,10 @@
       <c r="D40" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="E40" s="100">
+      <c r="E40" s="101">
         <v>44862</v>
       </c>
-      <c r="F40" s="100">
+      <c r="F40" s="101">
         <v>44774</v>
       </c>
       <c r="G40" s="12"/>
@@ -9529,10 +9164,10 @@
       <c r="D41" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="101">
         <v>44862</v>
       </c>
-      <c r="F41" s="100">
+      <c r="F41" s="101">
         <v>44774</v>
       </c>
       <c r="G41" s="12"/>
@@ -9551,10 +9186,10 @@
       <c r="D42" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="E42" s="100">
+      <c r="E42" s="101">
         <v>44875</v>
       </c>
-      <c r="F42" s="100"/>
+      <c r="F42" s="101"/>
       <c r="G42" s="12"/>
       <c r="H42" s="12"/>
     </row>
@@ -9571,10 +9206,10 @@
       <c r="D43" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="101">
         <v>44887</v>
       </c>
-      <c r="F43" s="100"/>
+      <c r="F43" s="101"/>
       <c r="G43" s="12"/>
       <c r="H43" s="12"/>
     </row>
@@ -9591,10 +9226,10 @@
       <c r="D44" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="E44" s="100">
+      <c r="E44" s="101">
         <v>44908</v>
       </c>
-      <c r="F44" s="100"/>
+      <c r="F44" s="101"/>
     </row>
     <row r="45" spans="1:21" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
@@ -9609,10 +9244,10 @@
       <c r="D45" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="100">
+      <c r="E45" s="101">
         <v>44915</v>
       </c>
-      <c r="F45" s="100"/>
+      <c r="F45" s="101"/>
       <c r="G45" s="20"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -9638,14 +9273,14 @@
       <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A47" s="88" t="s">
+      <c r="A47" s="89" t="s">
         <v>207</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
+      <c r="B47" s="90"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="90"/>
+      <c r="E47" s="90"/>
+      <c r="F47" s="90"/>
     </row>
     <row r="48" spans="1:21" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
@@ -9728,14 +9363,14 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="B53" s="89"/>
-      <c r="C53" s="89"/>
-      <c r="D53" s="89"/>
-      <c r="E53" s="89"/>
-      <c r="F53" s="89"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
@@ -10046,14 +9681,14 @@
       <c r="F69" s="15"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="88" t="s">
+      <c r="A70" s="89" t="s">
         <v>188</v>
       </c>
-      <c r="B70" s="89"/>
-      <c r="C70" s="89"/>
-      <c r="D70" s="89"/>
-      <c r="E70" s="89"/>
-      <c r="F70" s="89"/>
+      <c r="B70" s="90"/>
+      <c r="C70" s="90"/>
+      <c r="D70" s="90"/>
+      <c r="E70" s="90"/>
+      <c r="F70" s="90"/>
     </row>
     <row r="71" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
@@ -10356,14 +9991,14 @@
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="88" t="s">
+      <c r="A87" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="89"/>
-      <c r="C87" s="89"/>
-      <c r="D87" s="89"/>
-      <c r="E87" s="89"/>
-      <c r="F87" s="89"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="90"/>
+      <c r="E87" s="90"/>
+      <c r="F87" s="90"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
@@ -10446,14 +10081,14 @@
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="88" t="s">
+      <c r="A93" s="89" t="s">
         <v>172</v>
       </c>
-      <c r="B93" s="89"/>
-      <c r="C93" s="89"/>
-      <c r="D93" s="89"/>
-      <c r="E93" s="89"/>
-      <c r="F93" s="89"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="90"/>
+      <c r="D93" s="90"/>
+      <c r="E93" s="90"/>
+      <c r="F93" s="90"/>
     </row>
     <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
@@ -10611,6 +10246,38 @@
     <protectedRange algorithmName="SHA-512" hashValue="1cefG1gRHABLgKmhTWeN2GwI9Sv9PAkGXxgtLCtifL6uIV5KUOb0J/zIruZfNLmgIFedtZgSl51qXin285/eYw==" saltValue="jncUNQSzVlvOxhOJ0VhtKA==" spinCount="100000" sqref="D45" name="Rango1_47_1"/>
   </protectedRanges>
   <mergeCells count="48">
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="A1:F3"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E31:F31"/>
     <mergeCell ref="A93:F93"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="E5:F5"/>
@@ -10627,38 +10294,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
-    <mergeCell ref="A1:F3"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10687,39 +10322,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="102" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
+      <c r="A2" s="102"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A3" s="102"/>
-      <c r="B3" s="102"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="103"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="89" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
     </row>
     <row r="5" spans="1:42" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -11795,13 +11430,13 @@
       <c r="I33" s="41"/>
     </row>
     <row r="34" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="88" t="s">
+      <c r="A34" s="89" t="s">
         <v>440</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="89"/>
-      <c r="E34" s="89"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="90"/>
+      <c r="E34" s="90"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
       <c r="H34" s="37"/>
@@ -11875,14 +11510,14 @@
       <c r="F38" s="37"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="88" t="s">
+      <c r="A39" s="89" t="s">
         <v>444</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
     </row>
     <row r="40" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
@@ -11945,14 +11580,14 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="88" t="s">
+      <c r="A44" s="89" t="s">
         <v>453</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="89"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="90"/>
+      <c r="F44" s="90"/>
       <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -12043,14 +11678,14 @@
       <c r="G49" s="47"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="88" t="s">
+      <c r="A50" s="89" t="s">
         <v>467</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
+      <c r="B50" s="90"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
       <c r="G50" s="47"/>
     </row>
     <row r="51" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
@@ -12237,15 +11872,15 @@
       <c r="C60" s="46"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="89" t="s">
         <v>496</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
+      <c r="B61" s="90"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="90"/>
+      <c r="F61" s="90"/>
+      <c r="G61" s="90"/>
     </row>
     <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
